--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\waayk\hrp2\sdk\workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9B213C9-EB3D-4DA5-9D11-3818AB9FCC4A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59955120-7294-47AB-A67C-DA325618DC2F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{286395CC-0487-4399-AB62-D06D0F008343}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="1" xr2:uid="{286395CC-0487-4399-AB62-D06D0F008343}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t>案B</t>
   </si>
@@ -37,9 +39,6 @@
   </si>
   <si>
     <t>案C</t>
-  </si>
-  <si>
-    <t>案D</t>
   </si>
   <si>
     <t>がっちりサポーターをつけて作業を最小限にする</t>
@@ -172,6 +171,268 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>案D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>課題</t>
+    <rPh sb="0" eb="2">
+      <t>カダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カーブと直線を区別するか</t>
+    <rPh sb="4" eb="6">
+      <t>チョクセン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>クベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(速度指定値130だと直線は走れる、カーブは走れない)</t>
+    <rPh sb="1" eb="3">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>チョクセン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ハシ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ハシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>制御量が足りず、線を見失う</t>
+    <rPh sb="0" eb="2">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ミウシナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どうやって解決する？</t>
+    <rPh sb="5" eb="7">
+      <t>カイケツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→ネガティブアクター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>距離(ロータリーエンコーダ)</t>
+    <rPh sb="0" eb="2">
+      <t>キョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>案1</t>
+    <rPh sb="0" eb="1">
+      <t>アン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問題点</t>
+    <rPh sb="0" eb="2">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>線にどれだけ沿っているかによって値が変わる</t>
+    <rPh sb="0" eb="1">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ソ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>案2</t>
+    <rPh sb="0" eb="1">
+      <t>アン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自己位置推定(?)</t>
+    <rPh sb="0" eb="6">
+      <t>ジコイチスイテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>案3</t>
+    <rPh sb="0" eb="1">
+      <t>アン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こいつが何かわかってない(6/20理解)</t>
+    <rPh sb="4" eb="5">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>リカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>できていないこと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>できていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>倒立</t>
+    <rPh sb="0" eb="2">
+      <t>トウリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オンオフ制御でライントレース</t>
+    <rPh sb="4" eb="6">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>反射光の強さで取得</t>
+    <rPh sb="0" eb="3">
+      <t>ハンシャコウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>速度指定値30で走行</t>
+    <rPh sb="0" eb="2">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ソウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>尻尾を使った走行</t>
+    <rPh sb="0" eb="2">
+      <t>シッポ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ソウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャリブレーションではカラーセンサの値をとれている</t>
+    <rPh sb="18" eb="19">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャイロセンサのリセット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たぶん解決</t>
+    <rPh sb="3" eb="5">
+      <t>カイケツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>周期タスクでバランスコントロールを呼べている</t>
+    <rPh sb="0" eb="2">
+      <t>シュウキ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログ→私</t>
+    <rPh sb="3" eb="4">
+      <t>ワタシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャイロセンサをリセットするタイミング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PID制御</t>
+    <rPh sb="3" eb="5">
+      <t>セイギョ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -180,7 +441,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,6 +452,14 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -219,11 +488,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -542,32 +814,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9232A333-BF65-4A52-A395-0622DD27DE81}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="A19" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
@@ -585,10 +857,10 @@
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
@@ -598,65 +870,228 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C0FFAD1-6DC6-4632-AF12-D7CFCA18CFD9}">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C39CD4C-96DF-4846-BE07-574A9DD8E8A0}">
+  <dimension ref="C1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U22" sqref="U22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="D11" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
